--- a/target/test-classes/packages.xlsx
+++ b/target/test-classes/packages.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57901\Downloads\OneMAC-Automation\OneMAC-Automation\src\test\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="118">
   <si>
     <t>PackageType</t>
   </si>
@@ -376,12 +376,16 @@
   </si>
   <si>
     <t>NY-2223.R00.00</t>
+  </si>
+  <si>
+    <t>CO-2222.R01.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A5CF9F-A3EF-4F4C-99C9-E52FA1956C25}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
@@ -766,13 +770,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125"/>
+    <col min="4" max="4" customWidth="true" width="27.140625"/>
+    <col min="5" max="5" customWidth="true" width="20.7109375"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125"/>
+    <col min="7" max="7" customWidth="true" width="30.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,2139 +803,2162 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="A7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="A11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="A12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="A13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="A15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="A16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="A17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="A18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="A19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="A20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="A21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="A22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="A24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="A25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="A27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="A29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="A30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="A31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="A32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="A33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="A34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="A35" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="A36" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="A37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="A38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="A39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="A40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="A47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="A48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="A49" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="A50" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="A51" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="A52" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F56" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="F58" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F60" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="F62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="F64" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C65" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="F70" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="A71" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="A72" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="A73" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="A74" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="A75" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="A76" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="F76" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="F78" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="A81" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="A84" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="F84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="A86" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F86" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="A87" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="F88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="F88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="A90" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="F90" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="A91" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F91" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="F92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>15</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="A94" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="F94" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
+      <c r="F94" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
